--- a/Resultados/Plan_Optimizado_EDT_Final.xlsx
+++ b/Resultados/Plan_Optimizado_EDT_Final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>ASL.x-1(h)</t>
   </si>
@@ -271,6 +271,9 @@
     <t>SOil-43(d)</t>
   </si>
   <si>
+    <t>SOil-434(h)</t>
+  </si>
+  <si>
     <t>SOil-50(d)</t>
   </si>
   <si>
@@ -293,6 +296,9 @@
   </si>
   <si>
     <t>SOil-75(d)</t>
+  </si>
+  <si>
+    <t>SOil-9(d)</t>
   </si>
   <si>
     <t>SOil.a-2h</t>
@@ -662,15 +668,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CQ8"/>
+  <dimension ref="A1:CS7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:97">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -954,10 +960,16 @@
       <c r="CQ1" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="1:95">
+    <row r="2" spans="1:97">
       <c r="A2" s="2">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -993,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>414.6</v>
+        <v>428.42</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1023,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>659.4</v>
+        <v>681.38</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1035,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>586.8</v>
+        <v>606.36</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -1062,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>704.0999999999999</v>
+        <v>727.5699999999999</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1113,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>380.7</v>
+        <v>0</v>
       </c>
       <c r="BB2">
         <v>0</v>
@@ -1158,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>393.9</v>
+        <v>407.03</v>
       </c>
       <c r="BQ2">
         <v>0</v>
@@ -1203,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="CE2">
-        <v>480.9</v>
+        <v>496.9300000000001</v>
       </c>
       <c r="CF2">
         <v>0</v>
@@ -1215,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="CI2">
-        <v>0</v>
+        <v>580.3199999999999</v>
       </c>
       <c r="CJ2">
         <v>0</v>
@@ -1241,10 +1253,16 @@
       <c r="CQ2">
         <v>0</v>
       </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:95">
+    <row r="3" spans="1:97">
       <c r="A3" s="2">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1280,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>428.42</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1502,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="CI3">
-        <v>0</v>
+        <v>580.3199999999999</v>
       </c>
       <c r="CJ3">
         <v>0</v>
@@ -1528,10 +1546,16 @@
       <c r="CQ3">
         <v>0</v>
       </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:95">
+    <row r="4" spans="1:97">
       <c r="A4" s="2">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1567,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>428.42</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1597,1049 +1621,1067 @@
         <v>0</v>
       </c>
       <c r="W4">
+        <v>659.4</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>586.8</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>704.0999999999999</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>480.9</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>561.5999999999999</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:97">
+      <c r="A5" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>681.38</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>606.36</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>727.5699999999999</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
         <v>496.9300000000001</v>
       </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>580.3199999999999</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:95">
-      <c r="A5" s="2">
-        <v>45901</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>414.6</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
+    <row r="6" spans="1:97">
+      <c r="A6" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>659.4</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
         <v>586.8</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>704.0999999999999</v>
       </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5">
-        <v>0</v>
-      </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5">
-        <v>0</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5">
-        <v>0</v>
-      </c>
-      <c r="CE5">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
         <v>480.9</v>
       </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>0</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>561.5999999999999</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:95">
-      <c r="A6" s="2">
-        <v>45931</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>428.42</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
+    <row r="7" spans="1:97">
+      <c r="A7" s="2">
+        <v>45992</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>681.38</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
         <v>606.36</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>727.5699999999999</v>
       </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>0</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6">
-        <v>0</v>
-      </c>
-      <c r="BZ6">
-        <v>0</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6">
-        <v>0</v>
-      </c>
-      <c r="CC6">
-        <v>0</v>
-      </c>
-      <c r="CD6">
-        <v>0</v>
-      </c>
-      <c r="CE6">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
         <v>496.9300000000001</v>
       </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
-        <v>0</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>0</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
-      </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:95">
-      <c r="A7" s="2">
-        <v>45962</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>414.6</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>659.4</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>586.8</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>704.0999999999999</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
-      <c r="BS7">
-        <v>0</v>
-      </c>
-      <c r="BT7">
-        <v>0</v>
-      </c>
-      <c r="BU7">
-        <v>0</v>
-      </c>
-      <c r="BV7">
-        <v>0</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7">
-        <v>0</v>
-      </c>
-      <c r="BZ7">
-        <v>0</v>
-      </c>
-      <c r="CA7">
-        <v>0</v>
-      </c>
-      <c r="CB7">
-        <v>0</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7">
-        <v>0</v>
-      </c>
-      <c r="CE7">
-        <v>480.9</v>
-      </c>
       <c r="CF7">
         <v>0</v>
       </c>
@@ -2650,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="CI7">
-        <v>0</v>
+        <v>580.3199999999999</v>
       </c>
       <c r="CJ7">
         <v>0</v>
@@ -2676,291 +2718,10 @@
       <c r="CQ7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:95">
-      <c r="A8" s="2">
-        <v>45992</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>428.42</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>681.38</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>606.36</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>727.5699999999999</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-      <c r="BS8">
-        <v>0</v>
-      </c>
-      <c r="BT8">
-        <v>0</v>
-      </c>
-      <c r="BU8">
-        <v>0</v>
-      </c>
-      <c r="BV8">
-        <v>0</v>
-      </c>
-      <c r="BW8">
-        <v>0</v>
-      </c>
-      <c r="BX8">
-        <v>0</v>
-      </c>
-      <c r="BY8">
-        <v>0</v>
-      </c>
-      <c r="BZ8">
-        <v>0</v>
-      </c>
-      <c r="CA8">
-        <v>0</v>
-      </c>
-      <c r="CB8">
-        <v>0</v>
-      </c>
-      <c r="CC8">
-        <v>0</v>
-      </c>
-      <c r="CD8">
-        <v>0</v>
-      </c>
-      <c r="CE8">
-        <v>496.9300000000001</v>
-      </c>
-      <c r="CF8">
-        <v>0</v>
-      </c>
-      <c r="CG8">
-        <v>0</v>
-      </c>
-      <c r="CH8">
-        <v>0</v>
-      </c>
-      <c r="CI8">
-        <v>0</v>
-      </c>
-      <c r="CJ8">
-        <v>0</v>
-      </c>
-      <c r="CK8">
-        <v>0</v>
-      </c>
-      <c r="CL8">
-        <v>0</v>
-      </c>
-      <c r="CM8">
-        <v>0</v>
-      </c>
-      <c r="CN8">
-        <v>0</v>
-      </c>
-      <c r="CO8">
-        <v>0</v>
-      </c>
-      <c r="CP8">
-        <v>0</v>
-      </c>
-      <c r="CQ8">
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
         <v>0</v>
       </c>
     </row>
